--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1740,16 +1740,12 @@
   </si>
   <si>
     <t>Zimbabve</t>
-  </si>
-  <si>
-    <t>Nufus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2162,7 +2158,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2170,15 +2166,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:D191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="1" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2194,9 +2190,6 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
-        <v>573</v>
-      </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -2210,9 +2203,6 @@
       </c>
       <c r="D2" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>150000.0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4878,103 +4868,103 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E4" s="0">
+      <c r="E4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="0">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G7" s="0">
+      <c r="G7">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E9" s="0">
+      <c r="E9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C10" s="0">
+      <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F12" s="0">
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="0">
+      <c r="B17">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I20" s="0">
+      <c r="I20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C21" s="0">
+      <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G22" s="0">
+      <c r="G22">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F23" s="0">
+      <c r="F23">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="0">
+      <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G27" s="0">
+      <c r="G27">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="0">
+      <c r="B29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E30" s="0">
+      <c r="E30">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H32" s="0">
+      <c r="H32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C33" s="0">
+      <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="H34" s="0">
+      <c r="H34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E35" s="0">
+      <c r="E35">
         <v>1</v>
       </c>
     </row>
